--- a/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:22:57+00:00</t>
+    <t>2025-11-14T07:24:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:24:46+00:00</t>
+    <t>2025-11-14T07:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:30:49+00:00</t>
+    <t>2025-11-14T08:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="257">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T08:50:36+00:00</t>
+    <t>2025-11-18T17:20:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Schedule</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Schedule|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -464,6 +464,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-schedule|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Schedule.meta.security</t>
   </si>
   <si>
@@ -629,7 +632,7 @@
     <t>serviceTypeDuration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-service-type-duration}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-service-type-duration|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -651,7 +654,7 @@
     <t>availabilityTime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-schedule-availability-time}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-schedule-availability-time|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -763,13 +766,13 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty|2.2.0-ballot</t>
   </si>
   <si>
     <t>Schedule.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner)
+    <t xml:space="preserve">Reference(Device|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1163,7 +1166,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.66796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.17578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2340,7 +2343,7 @@
         <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>80</v>
@@ -2405,10 +2408,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2431,16 +2434,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2466,13 +2469,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -2490,7 +2493,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2516,10 +2519,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2542,16 +2545,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2577,13 +2580,13 @@
         <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>80</v>
@@ -2601,7 +2604,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2627,10 +2630,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2656,13 +2659,13 @@
         <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2712,7 +2715,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2738,10 +2741,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2764,16 +2767,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2799,13 +2802,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -2823,7 +2826,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -2849,14 +2852,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2875,16 +2878,16 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2934,7 +2937,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2949,7 +2952,7 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
@@ -2960,14 +2963,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2986,16 +2989,16 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3045,7 +3048,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3060,7 +3063,7 @@
         <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>80</v>
@@ -3071,10 +3074,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3100,10 +3103,10 @@
         <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3152,7 +3155,7 @@
         <v>114</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3178,13 +3181,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>80</v>
@@ -3206,13 +3209,13 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3263,7 +3266,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3272,7 +3275,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>116</v>
@@ -3289,13 +3292,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>80</v>
@@ -3317,13 +3320,13 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3374,7 +3377,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3383,7 +3386,7 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>116</v>
@@ -3400,10 +3403,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3429,16 +3432,16 @@
         <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>111</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -3487,7 +3490,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3502,7 +3505,7 @@
         <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
@@ -3513,10 +3516,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3539,13 +3542,13 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3596,7 +3599,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3614,18 +3617,18 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3648,23 +3651,23 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>80</v>
@@ -3709,7 +3712,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3730,15 +3733,15 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3761,13 +3764,13 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3794,11 +3797,11 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -3816,7 +3819,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3837,15 +3840,15 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3868,13 +3871,13 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3901,11 +3904,11 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -3923,7 +3926,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -3944,15 +3947,15 @@
         <v>85</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3975,13 +3978,13 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4008,11 +4011,11 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4030,7 +4033,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4051,15 +4054,15 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4082,16 +4085,16 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4141,7 +4144,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>88</v>
@@ -4159,18 +4162,18 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4193,13 +4196,13 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4250,7 +4253,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4268,18 +4271,18 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4305,10 +4308,10 @@
         <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4359,7 +4362,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4377,7 +4380,7 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:20:39+00:00</t>
+    <t>2025-12-05T08:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:27:25+00:00</t>
+    <t>2025-12-05T08:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:30:09+00:00</t>
+    <t>2025-12-05T08:32:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:32:19+00:00</t>
+    <t>2025-12-05T09:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:13:38+00:00</t>
+    <t>2025-12-05T09:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
